--- a/data/trans_orig/P33_MIN_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,05; 47,45</t>
+          <t>38,9; 47,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,43; 44,19</t>
+          <t>37,83; 44,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,01; 44,46</t>
+          <t>39,19; 44,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 40,12</t>
+          <t>13,47; 40,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,54; 39,3</t>
+          <t>11,96; 39,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 38,79</t>
+          <t>16,94; 38,52</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,09; 35,63</t>
+          <t>25,4; 35,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 43,95</t>
+          <t>23,67; 41,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 35,38</t>
+          <t>26,3; 36,04</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 39,01</t>
+          <t>18,99; 39,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 38,27</t>
+          <t>17,27; 38,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 38,33</t>
+          <t>23,71; 37,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_MIN_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas durante las cuales se echan la siesta en minutos</t>
+          <t>Nº medio de minutos durante los cuales la población se echa la siesta</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
